--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA5319-304C-41AF-862D-B83210A88E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C467E-CCEA-4CB2-B661-B0B9DCC3CA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="293">
   <si>
     <t>Number</t>
   </si>
@@ -886,6 +886,21 @@
   </si>
   <si>
     <t>Shortest Distance to a Character</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Matrix Cells in Distance Order</t>
+  </si>
+  <si>
+    <t>Leaf-Similar Trees</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1130,7 +1145,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G246">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1147,9 +1162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1187,7 +1202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1293,7 +1308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1444,24 +1459,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1553,7 +1568,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1668,7 +1683,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1783,7 +1798,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1829,7 +1844,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1852,7 +1867,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -1967,7 +1982,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -1990,7 +2005,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2036,7 +2051,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2059,7 +2074,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2220,7 +2235,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2243,7 +2258,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2266,7 +2281,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2335,7 +2350,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2427,7 +2442,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2519,7 +2534,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2565,7 +2580,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2588,7 +2603,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2611,7 +2626,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2634,7 +2649,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2657,7 +2672,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2680,7 +2695,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2703,7 +2718,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2749,7 +2764,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2772,7 +2787,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2795,7 +2810,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2818,7 +2833,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2910,7 +2925,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -2956,7 +2971,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3002,7 +3017,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3025,7 +3040,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3048,7 +3063,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3094,7 +3109,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3117,11 +3132,11 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C73" t="s">
@@ -3140,7 +3155,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3209,7 +3224,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3278,7 +3293,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3301,7 +3316,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3324,7 +3339,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3347,7 +3362,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3370,7 +3385,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3393,7 +3408,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3462,7 +3477,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3485,7 +3500,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3531,7 +3546,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3554,7 +3569,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3577,7 +3592,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3600,7 +3615,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3646,7 +3661,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3692,7 +3707,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3715,7 +3730,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3738,7 +3753,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3784,7 +3799,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3830,7 +3845,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -3922,7 +3937,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -3945,7 +3960,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -3968,7 +3983,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -3991,7 +4006,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4014,7 +4029,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4037,7 +4052,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4060,7 +4075,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4083,7 +4098,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4106,7 +4121,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4129,7 +4144,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4175,7 +4190,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4382,7 +4397,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4428,7 +4443,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4451,7 +4466,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4474,7 +4489,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4497,7 +4512,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4543,7 +4558,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4566,7 +4581,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4589,7 +4604,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4658,7 +4673,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4727,7 +4742,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4750,7 +4765,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4773,7 +4788,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4796,7 +4811,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4819,7 +4834,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4888,7 +4903,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4911,7 +4926,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -4934,7 +4949,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5026,7 +5041,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5049,7 +5064,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5072,7 +5087,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5118,7 +5133,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5233,7 +5248,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5256,7 +5271,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5279,7 +5294,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5302,7 +5317,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5325,7 +5340,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5371,7 +5386,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5417,7 +5432,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5486,7 +5501,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5509,7 +5524,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5532,7 +5547,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5555,7 +5570,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5578,7 +5593,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5624,7 +5639,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5647,7 +5662,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5693,7 +5708,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5739,7 +5754,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5785,7 +5800,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5808,7 +5823,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5831,7 +5846,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5854,7 +5869,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5877,7 +5892,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -5923,7 +5938,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -5946,7 +5961,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -5969,7 +5984,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -5992,7 +6007,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6015,7 +6030,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6038,7 +6053,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6061,7 +6076,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6084,7 +6099,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6130,7 +6145,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6153,7 +6168,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6176,7 +6191,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6199,7 +6214,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6222,7 +6237,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6245,7 +6260,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6291,7 +6306,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6337,7 +6352,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6360,7 +6375,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6383,7 +6398,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6406,7 +6421,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6429,7 +6444,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6452,7 +6467,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6521,7 +6536,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6544,7 +6559,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6567,7 +6582,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6613,7 +6628,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6682,7 +6697,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6705,7 +6720,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6751,7 +6766,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6774,7 +6789,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6797,7 +6812,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6820,7 +6835,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6843,7 +6858,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6866,7 +6881,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6889,7 +6904,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6912,7 +6927,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -6935,7 +6950,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -6981,7 +6996,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7004,7 +7019,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7050,7 +7065,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7073,7 +7088,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7096,7 +7111,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7119,7 +7134,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7142,7 +7157,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7165,12 +7180,12 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1160</v>
+        <v>1002</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C249" t="s">
         <v>24</v>
@@ -7182,18 +7197,18 @@
         <v>11</v>
       </c>
       <c r="F249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G249" s="19">
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1002</v>
+        <v>1160</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" t="s">
         <v>24</v>
@@ -7205,13 +7220,13 @@
         <v>11</v>
       </c>
       <c r="F250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G250" s="19">
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7234,12 +7249,12 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1341</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>285</v>
+        <v>821</v>
+      </c>
+      <c r="B252" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -7251,13 +7266,13 @@
         <v>11</v>
       </c>
       <c r="F252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G252" s="19">
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7280,12 +7295,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>821</v>
-      </c>
-      <c r="B254" s="23" t="s">
-        <v>287</v>
+        <v>1341</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -7297,10 +7312,125 @@
         <v>11</v>
       </c>
       <c r="F254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G254" s="19">
         <v>43864</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>26</v>
+      </c>
+      <c r="B255" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+      <c r="G255" s="19">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="19">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>283</v>
+      </c>
+      <c r="B257" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="19">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1030</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="19">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>872</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C259" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="19">
+        <v>43865</v>
       </c>
     </row>
   </sheetData>
@@ -7351,12 +7481,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7367,7 +7497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7378,7 +7508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7389,7 +7519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7400,7 +7530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7419,92 +7549,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C467E-CCEA-4CB2-B661-B0B9DCC3CA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5C477-8A0D-40A9-806E-F487BBDE9BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="295">
   <si>
     <t>Number</t>
   </si>
@@ -901,6 +901,12 @@
   </si>
   <si>
     <t>Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>Occurrences After Bigram</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="G259" sqref="G259"/>
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7431,6 +7437,52 @@
       </c>
       <c r="G259" s="19">
         <v>43865</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1022</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="19">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1078</v>
+      </c>
+      <c r="B261" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C261" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" s="19">
+        <v>43866</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5C477-8A0D-40A9-806E-F487BBDE9BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D791FE57-E7EA-4569-BC5E-8FA350CF512F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="296">
   <si>
     <t>Number</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>Occurrences After Bigram</t>
+  </si>
+  <si>
+    <t>Binary Subarrays With Sum</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7483,6 +7486,29 @@
       </c>
       <c r="G261" s="19">
         <v>43866</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>930</v>
+      </c>
+      <c r="B262" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C262" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" t="s">
+        <v>14</v>
+      </c>
+      <c r="E262" t="s">
+        <v>105</v>
+      </c>
+      <c r="F262" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="19">
+        <v>43867</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D791FE57-E7EA-4569-BC5E-8FA350CF512F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E8B7E-BB3A-481D-A37D-400D772BDFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="297">
   <si>
     <t>Number</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>Binary Subarrays With Sum</t>
+  </si>
+  <si>
+    <t>Statistics from a Large Sample</t>
   </si>
 </sst>
 </file>
@@ -919,12 +922,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1089,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1098,27 +1109,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1154,7 +1166,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1171,9 +1183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1211,7 +1223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1317,7 +1329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1468,24 +1480,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G261" sqref="G261"/>
+      <selection activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1853,7 +1865,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2037,7 +2049,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2083,7 +2095,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2474,7 +2486,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2543,7 +2555,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2819,7 +2831,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2842,7 +2854,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3003,7 +3015,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3095,7 +3107,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3394,7 +3406,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3463,7 +3475,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3509,7 +3521,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3601,7 +3613,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3808,7 +3820,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3831,7 +3843,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3900,7 +3912,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -3992,7 +4004,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4015,7 +4027,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4084,7 +4096,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4222,7 +4234,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4268,7 +4280,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4314,7 +4326,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4360,7 +4372,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4406,7 +4418,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4429,7 +4441,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4498,7 +4510,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4544,7 +4556,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4567,7 +4579,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4613,7 +4625,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4636,7 +4648,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4682,7 +4694,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4751,7 +4763,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4843,7 +4855,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4866,7 +4878,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4912,7 +4924,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4935,7 +4947,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -4958,7 +4970,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5050,7 +5062,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5073,7 +5085,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5142,7 +5154,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5188,7 +5200,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5234,7 +5246,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5257,7 +5269,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5280,7 +5292,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5303,7 +5315,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5418,7 +5430,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5441,7 +5453,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5464,7 +5476,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5487,7 +5499,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5510,7 +5522,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5556,7 +5568,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5579,7 +5591,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5602,7 +5614,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5648,7 +5660,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5671,7 +5683,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5717,7 +5729,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5740,7 +5752,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5763,7 +5775,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5786,7 +5798,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5832,7 +5844,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5855,7 +5867,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5924,7 +5936,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -5970,7 +5982,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6039,7 +6051,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6062,7 +6074,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6085,7 +6097,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6108,7 +6120,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6131,7 +6143,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6154,7 +6166,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6177,7 +6189,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6223,7 +6235,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6246,7 +6258,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6269,7 +6281,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6292,7 +6304,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6338,7 +6350,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6361,7 +6373,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6384,7 +6396,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6430,7 +6442,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6453,7 +6465,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6476,7 +6488,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6499,7 +6511,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6522,7 +6534,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6568,7 +6580,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6591,7 +6603,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6614,7 +6626,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6660,7 +6672,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6706,7 +6718,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6729,7 +6741,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6775,7 +6787,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6844,7 +6856,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6890,7 +6902,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6913,7 +6925,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6936,7 +6948,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -6959,7 +6971,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -6982,7 +6994,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7005,7 +7017,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7028,7 +7040,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7051,7 +7063,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7074,7 +7086,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7097,7 +7109,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7120,7 +7132,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7143,7 +7155,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7212,7 +7224,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7235,7 +7247,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7281,7 +7293,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7304,7 +7316,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7327,7 +7339,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7350,7 +7362,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7373,7 +7385,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7396,7 +7408,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7442,7 +7454,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7465,7 +7477,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7488,7 +7500,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7508,6 +7520,29 @@
         <v>7</v>
       </c>
       <c r="G262" s="19">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1093</v>
+      </c>
+      <c r="B263" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C263" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" s="19">
         <v>43867</v>
       </c>
     </row>
@@ -7559,12 +7594,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7575,7 +7610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7586,7 +7621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7597,7 +7632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7608,7 +7643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7627,92 +7662,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E8B7E-BB3A-481D-A37D-400D772BDFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE41993-3C32-40D1-9A47-397648B1AC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="298">
   <si>
     <t>Number</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Balanced Binary Tree</t>
   </si>
   <si>
-    <t xml:space="preserve"> Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
     <t>Implement Trie (Prefix Tree)</t>
   </si>
   <si>
@@ -913,6 +910,12 @@
   </si>
   <si>
     <t>Statistics from a Large Sample</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>3Sum</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1166,7 +1169,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1183,9 +1186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1223,7 +1226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1329,7 +1332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1480,24 +1483,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G263"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3245,11 +3248,11 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="24" t="s">
         <v>108</v>
       </c>
       <c r="C77" t="s">
@@ -3268,7 +3271,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3751,7 +3754,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4441,7 +4444,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5384,12 +5387,12 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>204</v>
+      <c r="B170" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="C170" t="s">
         <v>26</v>
@@ -5407,7 +5410,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5430,12 +5433,12 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s">
         <v>26</v>
@@ -5453,12 +5456,12 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s">
         <v>26</v>
@@ -5476,12 +5479,12 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
         <v>26</v>
@@ -5499,12 +5502,12 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C175" t="s">
         <v>26</v>
@@ -5522,12 +5525,12 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C176" t="s">
         <v>26</v>
@@ -5545,12 +5548,12 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C177" t="s">
         <v>26</v>
@@ -5568,12 +5571,12 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
         <v>26</v>
@@ -5591,12 +5594,12 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
         <v>25</v>
@@ -5614,12 +5617,12 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C180" t="s">
         <v>25</v>
@@ -5637,12 +5640,12 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>25</v>
@@ -5660,12 +5663,12 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C182" t="s">
         <v>25</v>
@@ -5683,12 +5686,12 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C183" t="s">
         <v>25</v>
@@ -5706,12 +5709,12 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
         <v>25</v>
@@ -5729,12 +5732,12 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C185" t="s">
         <v>26</v>
@@ -5752,12 +5755,12 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -5775,12 +5778,12 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -5798,12 +5801,12 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -5821,12 +5824,12 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -5844,12 +5847,12 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -5867,12 +5870,12 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -5890,12 +5893,12 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -5913,12 +5916,12 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -5936,12 +5939,12 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -5959,12 +5962,12 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -5982,12 +5985,12 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -6005,12 +6008,12 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -6028,12 +6031,12 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -6051,12 +6054,12 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -6074,12 +6077,12 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -6097,12 +6100,12 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -6120,12 +6123,12 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -6143,12 +6146,12 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -6166,12 +6169,12 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -6189,12 +6192,12 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -6212,12 +6215,12 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -6235,12 +6238,12 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -6258,12 +6261,12 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -6281,12 +6284,12 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -6304,12 +6307,12 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -6327,12 +6330,12 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -6350,12 +6353,12 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -6373,12 +6376,12 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -6396,12 +6399,12 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -6419,12 +6422,12 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -6442,12 +6445,12 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -6465,12 +6468,12 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -6488,12 +6491,12 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -6511,12 +6514,12 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -6534,12 +6537,12 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C220" t="s">
         <v>26</v>
@@ -6557,12 +6560,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -6580,12 +6583,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
@@ -6603,12 +6606,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C223" t="s">
         <v>19</v>
@@ -6626,12 +6629,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
@@ -6649,12 +6652,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
@@ -6672,12 +6675,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C226" t="s">
         <v>16</v>
@@ -6695,12 +6698,12 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
@@ -6718,12 +6721,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s">
         <v>18</v>
@@ -6741,12 +6744,12 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" t="s">
         <v>26</v>
@@ -6764,12 +6767,12 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C230" t="s">
         <v>25</v>
@@ -6787,12 +6790,12 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
         <v>15</v>
@@ -6810,12 +6813,12 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C232" t="s">
         <v>15</v>
@@ -6833,12 +6836,12 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C233" t="s">
         <v>17</v>
@@ -6856,12 +6859,12 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C234" t="s">
         <v>26</v>
@@ -6879,12 +6882,12 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -6902,12 +6905,12 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -6925,12 +6928,12 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C237" t="s">
         <v>16</v>
@@ -6948,12 +6951,12 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
@@ -6971,12 +6974,12 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
@@ -6994,12 +6997,12 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" t="s">
         <v>18</v>
@@ -7017,12 +7020,12 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
@@ -7040,12 +7043,12 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" t="s">
         <v>24</v>
@@ -7063,12 +7066,12 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
@@ -7086,12 +7089,12 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -7109,12 +7112,12 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C245" t="s">
         <v>15</v>
@@ -7132,12 +7135,12 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s">
         <v>15</v>
@@ -7155,12 +7158,12 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" t="s">
         <v>15</v>
@@ -7178,12 +7181,12 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -7201,12 +7204,12 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C249" t="s">
         <v>24</v>
@@ -7224,12 +7227,12 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C250" t="s">
         <v>24</v>
@@ -7247,12 +7250,12 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
@@ -7270,12 +7273,12 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -7293,12 +7296,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
@@ -7316,12 +7319,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
-      <c r="B254" s="22" t="s">
-        <v>285</v>
+      <c r="B254" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -7339,12 +7342,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
@@ -7362,12 +7365,12 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C256" t="s">
         <v>20</v>
@@ -7385,12 +7388,12 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
@@ -7408,12 +7411,12 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
@@ -7431,12 +7434,12 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7454,12 +7457,12 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -7477,12 +7480,12 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C261" t="s">
         <v>18</v>
@@ -7500,12 +7503,12 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>20</v>
@@ -7523,12 +7526,12 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
       <c r="B263" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C263" t="s">
         <v>16</v>
@@ -7544,6 +7547,29 @@
       </c>
       <c r="G263" s="19">
         <v>43867</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>15</v>
+      </c>
+      <c r="B264" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>7</v>
+      </c>
+      <c r="G264" s="19">
+        <v>43868</v>
       </c>
     </row>
   </sheetData>
@@ -7594,12 +7620,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7610,7 +7636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7632,7 +7658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7643,7 +7669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7662,92 +7688,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE41993-3C32-40D1-9A47-397648B1AC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65967647-AA44-48B8-BBCB-1FC844883AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="300">
   <si>
     <t>Number</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>3Sum</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -925,12 +931,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1112,20 +1126,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1133,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1169,7 +1184,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1186,9 +1201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1226,7 +1241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1332,7 +1347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1483,24 +1498,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1546,7 +1561,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1569,7 +1584,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1753,7 +1768,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1937,7 +1952,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2075,7 +2090,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2098,7 +2113,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2213,7 +2228,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2282,7 +2297,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2328,7 +2343,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2351,7 +2366,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2397,7 +2412,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2443,7 +2458,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2489,7 +2504,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2604,7 +2619,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2650,7 +2665,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2719,7 +2734,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2788,7 +2803,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2811,7 +2826,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2880,7 +2895,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2926,7 +2941,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -2972,7 +2987,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3064,7 +3079,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3087,7 +3102,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3156,7 +3171,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3202,7 +3217,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3225,7 +3240,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3248,7 +3263,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3271,7 +3286,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3294,7 +3309,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3340,7 +3355,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3363,7 +3378,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3386,7 +3401,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3409,7 +3424,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3432,7 +3447,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3455,7 +3470,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3478,7 +3493,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3501,7 +3516,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3524,7 +3539,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3547,7 +3562,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3593,7 +3608,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3662,7 +3677,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3685,7 +3700,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3731,7 +3746,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3754,7 +3769,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3777,7 +3792,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3800,7 +3815,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3823,7 +3838,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3846,7 +3861,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3915,7 +3930,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3938,7 +3953,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -3961,7 +3976,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4007,7 +4022,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4053,7 +4068,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4076,7 +4091,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4099,7 +4114,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4122,7 +4137,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4145,7 +4160,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4168,7 +4183,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4191,7 +4206,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4214,7 +4229,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4237,7 +4252,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4260,7 +4275,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4283,7 +4298,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4329,7 +4344,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4398,7 +4413,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4421,7 +4436,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4467,7 +4482,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4490,7 +4505,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4513,7 +4528,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4536,7 +4551,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4559,7 +4574,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4582,7 +4597,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4605,7 +4620,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4628,7 +4643,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4651,7 +4666,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4697,7 +4712,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4720,7 +4735,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4766,7 +4781,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4789,7 +4804,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4812,7 +4827,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4835,7 +4850,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4858,7 +4873,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4904,7 +4919,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -4973,7 +4988,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -4996,7 +5011,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5042,7 +5057,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5065,7 +5080,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5111,7 +5126,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5134,7 +5149,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5157,7 +5172,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5203,7 +5218,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5226,7 +5241,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5249,7 +5264,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5272,7 +5287,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5295,7 +5310,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5318,7 +5333,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5341,7 +5356,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5364,7 +5379,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5410,7 +5425,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5433,7 +5448,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5456,7 +5471,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5479,7 +5494,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5525,7 +5540,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5548,7 +5563,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5571,7 +5586,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5617,7 +5632,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5640,7 +5655,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5663,7 +5678,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5709,7 +5724,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5732,7 +5747,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5778,7 +5793,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5801,7 +5816,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5824,7 +5839,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5870,7 +5885,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5893,7 +5908,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5939,7 +5954,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -5962,7 +5977,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -5985,7 +6000,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6031,7 +6046,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6077,7 +6092,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6100,7 +6115,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6123,7 +6138,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6215,7 +6230,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6238,7 +6253,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6261,7 +6276,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6307,7 +6322,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6353,7 +6368,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6399,7 +6414,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6422,7 +6437,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6445,7 +6460,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6468,7 +6483,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6491,7 +6506,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6514,7 +6529,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6537,7 +6552,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6560,7 +6575,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6583,7 +6598,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6606,7 +6621,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6629,7 +6644,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6652,7 +6667,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6675,7 +6690,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6698,7 +6713,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6721,7 +6736,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6744,7 +6759,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6767,7 +6782,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6790,7 +6805,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6813,7 +6828,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6836,7 +6851,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6882,7 +6897,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6905,7 +6920,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6928,7 +6943,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6951,7 +6966,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -6974,7 +6989,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -6997,7 +7012,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7020,7 +7035,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7066,7 +7081,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7089,7 +7104,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7112,7 +7127,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7135,7 +7150,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7158,7 +7173,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7181,7 +7196,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7204,7 +7219,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7227,7 +7242,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7250,7 +7265,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7273,7 +7288,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7296,7 +7311,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7319,7 +7334,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7342,7 +7357,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7365,7 +7380,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7434,7 +7449,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7457,7 +7472,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7480,7 +7495,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7503,7 +7518,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7526,7 +7541,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7549,7 +7564,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7569,6 +7584,52 @@
         <v>7</v>
       </c>
       <c r="G264" s="19">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>226</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>105</v>
+      </c>
+      <c r="F265" t="s">
+        <v>7</v>
+      </c>
+      <c r="G265" s="19">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>637</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" s="19">
         <v>43868</v>
       </c>
     </row>
@@ -7620,12 +7681,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7636,7 +7697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7647,7 +7708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7669,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7688,92 +7749,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65967647-AA44-48B8-BBCB-1FC844883AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750D052-E62B-4983-8586-0A4A77F3FA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5148" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="303">
   <si>
     <t>Number</t>
   </si>
@@ -922,6 +922,15 @@
   </si>
   <si>
     <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number to Zero</t>
+  </si>
+  <si>
+    <t>Number of Sub-arrays of Size K and Average Greater than or Equal to Threshold</t>
+  </si>
+  <si>
+    <t>Angle Between Hands of a Clock</t>
   </si>
 </sst>
 </file>
@@ -931,12 +940,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1117,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1126,20 +1143,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1498,16 +1516,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G266"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -7631,6 +7649,75 @@
       </c>
       <c r="G266" s="19">
         <v>43868</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1342</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C267" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="19">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1343</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+      <c r="F268" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="19">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1344</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" s="19">
+        <v>43869</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750D052-E62B-4983-8586-0A4A77F3FA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB627FB-0E87-4DDF-9732-24256077AE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="305">
   <si>
     <t>Number</t>
   </si>
@@ -931,6 +931,12 @@
   </si>
   <si>
     <t>Angle Between Hands of a Clock</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1202,7 +1208,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1219,9 +1225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1259,7 +1265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1365,7 +1371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1516,24 +1522,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1924,7 +1930,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4477,7 +4483,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4868,7 +4874,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5213,7 +5219,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5328,7 +5334,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5903,7 +5909,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6087,7 +6093,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6708,7 +6714,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6846,7 +6852,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6869,7 +6875,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7076,7 +7082,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7168,7 +7174,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7237,7 +7243,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7260,7 +7266,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7444,7 +7450,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7513,7 +7519,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7582,7 +7588,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7605,7 +7611,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7697,7 +7703,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7718,6 +7724,52 @@
       </c>
       <c r="G269" s="19">
         <v>43869</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>209</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C270" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="19">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1004</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s">
+        <v>105</v>
+      </c>
+      <c r="F271" t="s">
+        <v>7</v>
+      </c>
+      <c r="G271" s="19">
+        <v>43871</v>
       </c>
     </row>
   </sheetData>
@@ -7768,12 +7820,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7784,7 +7836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7795,7 +7847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7806,7 +7858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7817,7 +7869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7836,92 +7888,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB627FB-0E87-4DDF-9732-24256077AE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18835831-0309-40F9-9535-686A1F50D1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="306">
   <si>
     <t>Number</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Replace the Substring for Balanced String</t>
   </si>
 </sst>
 </file>
@@ -946,12 +949,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,20 +1160,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1208,7 +1220,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1225,9 +1237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,7 +1277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1371,7 +1383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1522,24 +1534,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="G271" sqref="G271"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F272" sqref="F272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1723,7 +1735,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1815,7 +1827,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2183,7 +2195,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2275,7 +2287,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2850,7 +2862,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2919,7 +2931,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3080,7 +3092,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3103,7 +3115,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3287,7 +3299,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3356,7 +3368,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3402,7 +3414,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3471,7 +3483,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3563,7 +3575,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3586,7 +3598,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3609,7 +3621,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3678,7 +3690,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3701,7 +3713,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3839,7 +3851,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3862,7 +3874,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4000,7 +4012,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4069,7 +4081,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4092,7 +4104,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4230,7 +4242,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4299,7 +4311,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4322,7 +4334,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4391,7 +4403,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4414,7 +4426,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4460,7 +4472,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4483,7 +4495,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4552,7 +4564,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4575,7 +4587,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4621,7 +4633,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4690,7 +4702,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4736,7 +4748,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4920,7 +4932,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4943,7 +4955,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4966,7 +4978,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5012,7 +5024,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5058,7 +5070,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5104,7 +5116,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5196,7 +5208,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5219,7 +5231,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5242,7 +5254,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5288,7 +5300,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5311,7 +5323,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5334,7 +5346,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5357,7 +5369,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5380,7 +5392,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5472,7 +5484,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5495,7 +5507,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5518,7 +5530,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5541,7 +5553,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5610,7 +5622,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5656,7 +5668,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5679,7 +5691,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5725,7 +5737,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5748,7 +5760,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5771,7 +5783,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5794,7 +5806,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5840,7 +5852,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5886,7 +5898,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5909,7 +5921,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5955,7 +5967,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5978,7 +5990,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6047,7 +6059,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6070,7 +6082,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6093,7 +6105,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6116,7 +6128,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6185,7 +6197,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6231,7 +6243,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6254,7 +6266,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6277,7 +6289,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6300,7 +6312,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6346,7 +6358,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6369,7 +6381,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6415,7 +6427,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6438,7 +6450,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6461,7 +6473,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6484,7 +6496,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6530,7 +6542,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6553,7 +6565,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6576,7 +6588,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6599,7 +6611,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6622,7 +6634,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6668,7 +6680,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6714,7 +6726,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6737,7 +6749,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6760,7 +6772,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6806,7 +6818,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6829,7 +6841,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6852,7 +6864,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6898,7 +6910,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6921,7 +6933,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6944,7 +6956,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6990,7 +7002,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7013,7 +7025,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7036,7 +7048,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7082,7 +7094,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7105,7 +7117,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7128,7 +7140,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7151,7 +7163,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7174,7 +7186,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7220,7 +7232,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7266,7 +7278,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7289,7 +7301,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7335,7 +7347,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7358,7 +7370,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7381,7 +7393,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7404,7 +7416,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7427,7 +7439,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7450,7 +7462,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7473,7 +7485,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7496,7 +7508,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7519,7 +7531,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7542,7 +7554,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7565,7 +7577,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7588,7 +7600,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7611,7 +7623,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7680,7 +7692,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7703,7 +7715,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7726,7 +7738,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7749,7 +7761,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7770,6 +7782,29 @@
       </c>
       <c r="G271" s="19">
         <v>43871</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1234</v>
+      </c>
+      <c r="B272" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C272" t="s">
+        <v>18</v>
+      </c>
+      <c r="D272" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" t="s">
+        <v>105</v>
+      </c>
+      <c r="F272" t="s">
+        <v>7</v>
+      </c>
+      <c r="G272" s="19">
+        <v>43872</v>
       </c>
     </row>
   </sheetData>
@@ -7820,12 +7855,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7836,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7847,7 +7882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7858,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7888,92 +7923,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18835831-0309-40F9-9535-686A1F50D1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB126719-DFAA-4B2F-A9AC-691CEC6DA335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="308">
   <si>
     <t>Number</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>Replace the Substring for Balanced String</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1220,7 +1226,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1237,9 +1243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1277,7 +1283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1383,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1534,24 +1540,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4886,7 +4892,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5599,7 +5605,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5645,7 +5651,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5668,7 +5674,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5783,7 +5789,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5875,7 +5881,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5898,7 +5904,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6427,7 +6433,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6496,7 +6502,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6726,7 +6732,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6772,7 +6778,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6933,7 +6939,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7094,7 +7100,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7140,7 +7146,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7209,7 +7215,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7278,7 +7284,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7370,7 +7376,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7508,7 +7514,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7554,7 +7560,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7577,7 +7583,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7715,7 +7721,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7805,6 +7811,52 @@
       </c>
       <c r="G272" s="19">
         <v>43872</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>424</v>
+      </c>
+      <c r="B273" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>105</v>
+      </c>
+      <c r="F273" t="s">
+        <v>7</v>
+      </c>
+      <c r="G273" s="19">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>567</v>
+      </c>
+      <c r="B274" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C274" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>105</v>
+      </c>
+      <c r="F274" t="s">
+        <v>7</v>
+      </c>
+      <c r="G274" s="19">
+        <v>43873</v>
       </c>
     </row>
   </sheetData>
@@ -7855,12 +7907,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7871,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7882,7 +7934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7893,7 +7945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7904,7 +7956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7923,92 +7975,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB126719-DFAA-4B2F-A9AC-691CEC6DA335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FE3D9-E39E-4578-92E2-5E9D9AF8CC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="309">
   <si>
     <t>Number</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Longest Turbulent Subarray</t>
   </si>
 </sst>
 </file>
@@ -955,12 +958,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1157,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1166,20 +1177,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,7 +1202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1226,7 +1238,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1243,9 +1255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1283,7 +1295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1389,7 +1401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1540,24 +1552,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2063,7 +2075,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2201,7 +2213,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2914,7 +2926,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3098,7 +3110,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3167,7 +3179,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3420,7 +3432,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3489,7 +3501,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3535,7 +3547,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3558,7 +3570,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3650,7 +3662,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3719,7 +3731,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3765,7 +3777,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3903,7 +3915,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4087,7 +4099,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4202,7 +4214,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4271,7 +4283,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4455,7 +4467,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4478,7 +4490,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4501,7 +4513,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4524,7 +4536,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4570,7 +4582,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4616,7 +4628,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4846,7 +4858,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4984,7 +4996,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5030,7 +5042,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5076,7 +5088,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5099,7 +5111,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5168,7 +5180,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5283,7 +5295,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5306,7 +5318,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5352,7 +5364,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5375,7 +5387,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5421,7 +5433,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5490,7 +5502,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5513,7 +5525,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5536,7 +5548,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5605,7 +5617,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5628,7 +5640,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5651,7 +5663,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5720,7 +5732,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5789,7 +5801,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5835,7 +5847,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5858,7 +5870,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5904,7 +5916,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5950,7 +5962,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -5996,7 +6008,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6019,7 +6031,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6111,7 +6123,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6134,7 +6146,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6157,7 +6169,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6180,7 +6192,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6226,7 +6238,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6249,7 +6261,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6364,7 +6376,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6410,7 +6422,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6433,7 +6445,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6456,7 +6468,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6479,7 +6491,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6502,7 +6514,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6525,7 +6537,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6548,7 +6560,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6571,7 +6583,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6640,7 +6652,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6686,7 +6698,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6709,7 +6721,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6732,7 +6744,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6778,7 +6790,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6801,7 +6813,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6870,7 +6882,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6893,7 +6905,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6916,7 +6928,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6962,7 +6974,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7031,7 +7043,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7054,7 +7066,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7100,7 +7112,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7123,7 +7135,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7146,7 +7158,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7169,7 +7181,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7192,7 +7204,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7238,7 +7250,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7261,7 +7273,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7284,7 +7296,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7307,7 +7319,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7330,7 +7342,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7353,7 +7365,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7376,7 +7388,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7399,7 +7411,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7422,7 +7434,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7445,7 +7457,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7468,7 +7480,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7491,7 +7503,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7514,7 +7526,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7537,7 +7549,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7560,7 +7572,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7583,7 +7595,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7606,7 +7618,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7629,7 +7641,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7652,7 +7664,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7721,7 +7733,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7744,7 +7756,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7790,7 +7802,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7813,7 +7825,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7836,7 +7848,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7856,6 +7868,29 @@
         <v>7</v>
       </c>
       <c r="G274" s="19">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>978</v>
+      </c>
+      <c r="B275" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
+        <v>7</v>
+      </c>
+      <c r="G275" s="19">
         <v>43873</v>
       </c>
     </row>
@@ -7907,12 +7942,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7923,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7934,7 +7969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7945,7 +7980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7956,7 +7991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -7975,92 +8010,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FE3D9-E39E-4578-92E2-5E9D9AF8CC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E70A87-D5AF-471A-9266-35D673F87931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="311">
   <si>
     <t>Number</t>
   </si>
@@ -949,6 +949,12 @@
   </si>
   <si>
     <t>Longest Turbulent Subarray</t>
+  </si>
+  <si>
+    <t>Get Equal Substrings Within Budget</t>
+  </si>
+  <si>
+    <t>Moving Stones Until Consecutive II</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1238,7 +1244,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1255,9 +1261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1295,7 +1301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1401,7 +1407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1552,24 +1558,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5226,7 +5232,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5387,7 +5393,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5456,7 +5462,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7756,7 +7762,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7892,6 +7898,52 @@
       </c>
       <c r="G275" s="19">
         <v>43873</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1208</v>
+      </c>
+      <c r="B276" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F276" t="s">
+        <v>7</v>
+      </c>
+      <c r="G276" s="19">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1040</v>
+      </c>
+      <c r="B277" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" t="s">
+        <v>7</v>
+      </c>
+      <c r="G277" s="19">
+        <v>43875</v>
       </c>
     </row>
   </sheetData>
@@ -7942,12 +7994,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7958,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7969,7 +8021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +8032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7991,7 +8043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8010,92 +8062,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preposition 2019-2020.xlsx
+++ b/Interview preposition 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E70A87-D5AF-471A-9266-35D673F87931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437F5958-8EF3-4599-964A-EBA841F2B939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
     <t>Get Equal Substrings Within Budget</t>
   </si>
   <si>
-    <t>Moving Stones Until Consecutive II</t>
+    <t>Grumpy Bookstore Owner</t>
   </si>
 </sst>
 </file>
@@ -964,12 +964,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1183,20 +1191,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,7 +1217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1244,7 +1253,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1261,9 +1270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1301,7 +1310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1407,7 +1416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1561,21 +1570,21 @@
   <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+      <selection activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1644,7 +1653,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2748,7 +2757,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -2978,7 +2987,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3185,7 +3194,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3484,7 +3493,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3576,7 +3585,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3783,7 +3792,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4059,7 +4068,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4082,7 +4091,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4151,7 +4160,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4266,7 +4275,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4703,7 +4712,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4841,7 +4850,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4887,7 +4896,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5025,7 +5034,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5117,7 +5126,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5140,7 +5149,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5163,7 +5172,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5278,7 +5287,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5324,7 +5333,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5416,7 +5425,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5439,7 +5448,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5508,7 +5517,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5554,7 +5563,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5577,7 +5586,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5692,7 +5701,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5761,7 +5770,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5784,7 +5793,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5807,7 +5816,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5876,7 +5885,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6037,7 +6046,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6060,7 +6069,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6083,7 +6092,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6106,7 +6115,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6129,7 +6138,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6152,7 +6161,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6175,7 +6184,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6244,7 +6253,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6290,7 +6299,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6336,7 +6345,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6359,7 +6368,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6405,7 +6414,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6428,7 +6437,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6451,7 +6460,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6520,7 +6529,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6589,7 +6598,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6612,7 +6621,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6658,7 +6667,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6681,7 +6690,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6704,7 +6713,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6727,7 +6736,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6750,7 +6759,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6773,7 +6782,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6796,7 +6805,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6842,7 +6851,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6865,7 +6874,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6934,7 +6943,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6957,7 +6966,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -6980,7 +6989,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7026,7 +7035,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7049,7 +7058,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7072,7 +7081,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7095,7 +7104,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7118,7 +7127,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7141,7 +7150,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7210,7 +7219,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7256,7 +7265,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7279,7 +7288,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7302,7 +7311,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7325,7 +7334,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7348,7 +7357,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7394,7 +7403,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7417,7 +7426,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7440,7 +7449,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7463,7 +7472,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7532,7 +7541,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7578,7 +7587,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7601,7 +7610,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7624,7 +7633,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7647,7 +7656,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7693,7 +7702,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7716,7 +7725,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7739,7 +7748,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7785,7 +7794,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7808,7 +7817,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7831,7 +7840,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7854,7 +7863,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7900,7 +7909,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -7923,11 +7932,11 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>1040</v>
-      </c>
-      <c r="B277" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B277" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C277" t="s">
@@ -7937,13 +7946,13 @@
         <v>14</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G277" s="19">
-        <v>43875</v>
+        <v>43881</v>
       </c>
     </row>
   </sheetData>
@@ -7994,12 +8003,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8021,7 +8030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8032,7 +8041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8043,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8062,92 +8071,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>
